--- a/BlueprintTemplate.xlsx
+++ b/BlueprintTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riccardo/Documents/GitHub/PSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B20D2F-05CA-FB45-A1E3-2AAF7F4E5C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24BB4CB-5C7C-CC4B-A72D-256F05F7C04E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,15 +87,9 @@
     <t>sul sito dell'ospedale sono presenti vari banner pubblicitari che riportano al sito dell'app</t>
   </si>
   <si>
-    <t xml:space="preserve">sul foglio dell'accettazione è presente una piccola pubblicità    del servizio oltre al codice temporaneo di accesso </t>
-  </si>
-  <si>
     <t>prendere ticket accettazione con codice temporaneo</t>
   </si>
   <si>
-    <t>scaricare applicazione</t>
-  </si>
-  <si>
     <t>l'utente può visualizzare in qualunque momento il numero di pazienti in coda davanti a lui con i relativi codici di priorità.</t>
   </si>
   <si>
@@ -111,18 +105,6 @@
     <t>accedere entro il tempo massimo all'applicazione usando le credenziali ricevute e la propria mail (opzionale)</t>
   </si>
   <si>
-    <t>accesso alla sezione "allergie e ricoveri passati" e cliccare su "concluso"</t>
-  </si>
-  <si>
-    <t>compilare con attenzione form sull'app così da velocizzare i tempi durante le visite.</t>
-  </si>
-  <si>
-    <t>è possiile visualizzare gli esiti degli esami e delle visite mediche fatte all'interno del pronto soccorso durante il ricovero in corso .</t>
-  </si>
-  <si>
-    <t>possibilità di ricevere una mail riassuntiva del ricovero e chiusura della sessione dell'app</t>
-  </si>
-  <si>
     <t>accettazione</t>
   </si>
   <si>
@@ -144,19 +126,37 @@
     <t>accesso alla sezione "cartella clinica" dopo che il paziente è entrato in pronto soccorso</t>
   </si>
   <si>
-    <t>visualizzazione sezione "lista d'attesa" finchè il paziente è in attesa del proprio turno</t>
-  </si>
-  <si>
     <t>48 h dopo che il paziente viene dimesso avviene la cancellazione della sua sessione sull'applicazione</t>
   </si>
   <si>
     <t>pagamento ticket ospedaliero se richiesto</t>
   </si>
   <si>
-    <t>il paziente, dopo essere stato dimesso, entro 48 ore ha la possibilità di pagare il ticket direttamente dall'app.</t>
-  </si>
-  <si>
-    <t>processa pagamento online</t>
+    <t>scaricare applicazione su proprio device</t>
+  </si>
+  <si>
+    <t>accedere alla sezione "allergie e ricoveri passati" e cliccare su "concluso" una volta compilati tutti i campi</t>
+  </si>
+  <si>
+    <t>compilare form sull'app così da velocizzare i tempi delle le visite</t>
+  </si>
+  <si>
+    <t>possibilità d visualizzare la sezione "lista di attesa" finchè il paziente è in attesa del proprio turno</t>
+  </si>
+  <si>
+    <t>il paziente, dopo essere stato dimesso, entro 48 ore ha la possibilità di pagare il ticket direttamente dall'app se richiesto per la sua priorità e se non è già stato pagato in altro modo</t>
+  </si>
+  <si>
+    <t>il paziente può visualizzare in qualunque momento gli esiti degli esami e delle visite mediche fatte all'interno del pronto soccorso durante il ricovero in corso</t>
+  </si>
+  <si>
+    <t>l'utente ricevere una mail riassuntiva del ricovero e avviene la chiusura definitiva della sessione sull'app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sul foglio dell'accettazione è presente una piccola pubblicità del servizio oltre al codice temporaneo di accesso </t>
+  </si>
+  <si>
+    <t>processare pagamento online</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -299,115 +299,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -535,18 +475,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -556,110 +490,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,324 +857,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P33"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="16" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" s="2" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="39" t="s">
+    <row r="3" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" spans="2:16" ht="96" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+    </row>
+    <row r="5" spans="2:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="2:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="H11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:13" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22"/>
+      <c r="C14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="2:16" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="2:13" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:16" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="2:16" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
-      <c r="C8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="2:16" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="37"/>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="2:16" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="37"/>
-      <c r="C10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="2:16" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="2:16" ht="80" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="2:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="36"/>
-    </row>
-    <row r="16" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1278,15 +1158,15 @@
     <row r="32" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>